--- a/FE/Excel/Group_Table.xlsx
+++ b/FE/Excel/Group_Table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -43,6 +43,12 @@
     <x:t>Key</x:t>
   </x:si>
   <x:si>
+    <x:t>Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lead</x:t>
+  </x:si>
+  <x:si>
     <x:t>Admin</x:t>
   </x:si>
   <x:si>
@@ -55,28 +61,31 @@
     <x:t>sample</x:t>
   </x:si>
   <x:si>
-    <x:t>Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lead</x:t>
-  </x:si>
-  <x:si>
     <x:t>Staff</x:t>
   </x:si>
   <x:si>
     <x:t>staff</x:t>
   </x:si>
   <x:si>
+    <x:t>Pm</x:t>
+  </x:si>
+  <x:si>
     <x:t>pm</x:t>
   </x:si>
   <x:si>
-    <x:t>123213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>asdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aasdf</x:t>
+    <x:t>groupnew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>group new</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gropu1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>string</x:t>
+  </x:si>
+  <x:si>
+    <x:t>group124242</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -465,7 +474,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I7"/>
+  <x:dimension ref="A1:I9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -473,13 +482,13 @@
   <x:cols>
     <x:col min="1" max="1" width="3.470625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.020625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="13.230625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="12.430625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="13.270625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="16.170625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="9.890625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.200625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="10.500625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">
@@ -513,7 +522,7 @@
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
         <x:v>9</x:v>
@@ -522,17 +531,11 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E2" s="2">
-        <x:v>44935</x:v>
-      </x:c>
-      <x:c r="F2" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G2" s="3">
-        <x:v>44935.3345584375</x:v>
-      </x:c>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s"/>
+      <x:c r="F2" s="1" t="s"/>
+      <x:c r="G2" s="1" t="s"/>
       <x:c r="H2" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -542,7 +545,7 @@
     </x:row>
     <x:row r="3" spans="1:9">
       <x:c r="A3" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
         <x:v>11</x:v>
@@ -551,11 +554,17 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s"/>
-      <x:c r="F3" s="1" t="s"/>
-      <x:c r="G3" s="1" t="s"/>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E3" s="2">
+        <x:v>44935</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="3">
+        <x:v>44985.4224126505</x:v>
+      </x:c>
       <x:c r="H3" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -565,7 +574,7 @@
     </x:row>
     <x:row r="4" spans="1:9">
       <x:c r="A4" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
         <x:v>13</x:v>
@@ -574,11 +583,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s"/>
       <x:c r="F4" s="1" t="s"/>
-      <x:c r="G4" s="1" t="s"/>
+      <x:c r="G4" s="3">
+        <x:v>44985.4224553472</x:v>
+      </x:c>
       <x:c r="H4" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
@@ -594,10 +605,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s"/>
       <x:c r="F5" s="1" t="s"/>
@@ -620,7 +631,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s"/>
       <x:c r="F6" s="1" t="s"/>
@@ -629,34 +640,86 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="I6" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:9">
       <x:c r="A7" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E7" s="2">
-        <x:v>44980</x:v>
+        <x:v>44988</x:v>
       </x:c>
       <x:c r="F7" s="1" t="s"/>
-      <x:c r="G7" s="3">
-        <x:v>44980.7119999537</x:v>
-      </x:c>
+      <x:c r="G7" s="1" t="s"/>
       <x:c r="H7" s="1" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="I7" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9">
+      <x:c r="A8" s="1" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E8" s="2">
+        <x:v>44988</x:v>
+      </x:c>
+      <x:c r="F8" s="1" t="s"/>
+      <x:c r="G8" s="1" t="s"/>
+      <x:c r="H8" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I8" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9">
+      <x:c r="A9" s="1" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E9" s="2">
+        <x:v>44988</x:v>
+      </x:c>
+      <x:c r="F9" s="1" t="n">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G9" s="3">
+        <x:v>44988.242957581</x:v>
+      </x:c>
+      <x:c r="H9" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I9" s="1" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
